--- a/admin/ekspor/data_customer.xlsx
+++ b/admin/ekspor/data_customer.xlsx
@@ -15,30 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Customer Name</t>
   </si>
   <si>
     <t>Customer Phone</t>
-  </si>
-  <si>
-    <t>Andi Budiman</t>
-  </si>
-  <si>
-    <t>083912732343</t>
-  </si>
-  <si>
-    <t>Budi Gunawan</t>
-  </si>
-  <si>
-    <t>08377321321</t>
-  </si>
-  <si>
-    <t>Junita Iskandar</t>
-  </si>
-  <si>
-    <t>08737123143</t>
   </si>
 </sst>
 </file>
@@ -377,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,30 +373,6 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ekspor/data_customer.xlsx
+++ b/admin/ekspor/data_customer.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Customer Name</t>
   </si>
   <si>
     <t>Customer Phone</t>
+  </si>
+  <si>
+    <t>Reza</t>
+  </si>
+  <si>
+    <t>08123</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +379,14 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ekspor/data_customer.xlsx
+++ b/admin/ekspor/data_customer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Customer Name</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>08123</t>
+  </si>
+  <si>
+    <t>0812</t>
+  </si>
+  <si>
+    <t>Aa Ezha</t>
+  </si>
+  <si>
+    <t>081287411747</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +396,22 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
